--- a/tut05/output/0401CS19.xlsx
+++ b/tut05/output/0401CS19.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.918367346938775</v>
+        <v>6.92</v>
       </c>
       <c r="C6" t="n">
-        <v>6.159090909090909</v>
+        <v>6.16</v>
       </c>
       <c r="D6" t="n">
-        <v>6.883720930232558</v>
+        <v>6.88</v>
       </c>
       <c r="E6" t="n">
-        <v>7.404255319148936</v>
+        <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>7.428571428571429</v>
+        <v>7.43</v>
       </c>
       <c r="G6" t="n">
         <v>7.1</v>
       </c>
       <c r="H6" t="n">
-        <v>7.853658536585366</v>
+        <v>7.85</v>
       </c>
       <c r="I6" t="n">
         <v>8.199999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.918367346938775</v>
+        <v>6.92</v>
       </c>
       <c r="C8" t="n">
-        <v>6.559139784946237</v>
+        <v>6.56</v>
       </c>
       <c r="D8" t="n">
-        <v>6.661764705882353</v>
+        <v>6.66</v>
       </c>
       <c r="E8" t="n">
-        <v>6.852459016393443</v>
+        <v>6.85</v>
       </c>
       <c r="F8" t="n">
         <v>6.96</v>
       </c>
       <c r="G8" t="n">
-        <v>6.981132075471698</v>
+        <v>6.98</v>
       </c>
       <c r="H8" t="n">
-        <v>7.098039215686274</v>
+        <v>7.1</v>
       </c>
       <c r="I8" t="n">
-        <v>7.22543352601156</v>
+        <v>7.23</v>
       </c>
     </row>
   </sheetData>
